--- a/data/guns.xlsx
+++ b/data/guns.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="23140" yWindow="5880" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="3920" yWindow="4220" windowWidth="19000" windowHeight="15160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="weapons.csv" sheetId="1" r:id="rId1"/>
@@ -54,9 +54,6 @@
     <t>Weight</t>
   </si>
   <si>
-    <t>Shots</t>
-  </si>
-  <si>
     <t>ROF</t>
   </si>
   <si>
@@ -72,49 +69,52 @@
     <t>Snapfire: -2 to shots unless no movement this turn.</t>
   </si>
   <si>
-    <t>10mm</t>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>15/30/60</t>
+  </si>
+  <si>
+    <t>24/48/96</t>
+  </si>
+  <si>
+    <t>2d8</t>
+  </si>
+  <si>
+    <t>2d6+1</t>
+  </si>
+  <si>
+    <t>12/24/48</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Pipe Pistol</t>
+  </si>
+  <si>
+    <t>2d4</t>
+  </si>
+  <si>
+    <t>8/16/32</t>
+  </si>
+  <si>
+    <t>Cauterizing: +2 to Vigor tests to not bleed out.</t>
+  </si>
+  <si>
+    <t>10-mm</t>
   </si>
   <si>
     <t>.308</t>
   </si>
   <si>
-    <t>AP</t>
-  </si>
-  <si>
-    <t>15/30/60</t>
+    <t>.32</t>
+  </si>
+  <si>
+    <t>XShots</t>
   </si>
   <si>
     <t>Cell</t>
-  </si>
-  <si>
-    <t>24/48/96</t>
-  </si>
-  <si>
-    <t>2d8</t>
-  </si>
-  <si>
-    <t>2d6+1</t>
-  </si>
-  <si>
-    <t>12/24/48</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Pipe Pistol</t>
-  </si>
-  <si>
-    <t>2d4</t>
-  </si>
-  <si>
-    <t>8/16/32</t>
-  </si>
-  <si>
-    <t>.32</t>
-  </si>
-  <si>
-    <t>Cauterizing: +2 to Vigor tests to not bleed out.</t>
   </si>
 </sst>
 </file>
@@ -508,7 +508,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -531,34 +531,34 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -572,7 +572,7 @@
         <v>225</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
@@ -581,10 +581,10 @@
         <v>1</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="I2">
         <v>12</v>
@@ -616,10 +616,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="I3">
         <v>30</v>
@@ -631,7 +631,7 @@
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -645,7 +645,7 @@
         <v>1500</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E4" s="4">
         <v>2</v>
@@ -654,10 +654,10 @@
         <v>1</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I4">
         <v>5</v>
@@ -669,12 +669,12 @@
         <v>6</v>
       </c>
       <c r="L4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>1</v>
       </c>
       <c r="G5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="I5">
         <v>12</v>
@@ -709,10 +709,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <ignoredErrors>
-    <ignoredError sqref="H4" numberStoredAsText="1"/>
-    <ignoredError sqref="G2" twoDigitTextYear="1"/>
-  </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/data/guns.xlsx
+++ b/data/guns.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3920" yWindow="4220" windowWidth="19000" windowHeight="15160" tabRatio="500"/>
+    <workbookView xWindow="2700" yWindow="4040" windowWidth="19000" windowHeight="15160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="weapons.csv" sheetId="1" r:id="rId1"/>
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Qty</t>
   </si>
   <si>
-    <t>10-mm Pistol</t>
-  </si>
-  <si>
     <t>d4</t>
   </si>
   <si>
@@ -102,19 +99,31 @@
     <t>Cauterizing: +2 to Vigor tests to not bleed out.</t>
   </si>
   <si>
-    <t>10-mm</t>
-  </si>
-  <si>
-    <t>.308</t>
-  </si>
-  <si>
-    <t>.32</t>
-  </si>
-  <si>
     <t>XShots</t>
   </si>
   <si>
     <t>Cell</t>
+  </si>
+  <si>
+    <t>x308</t>
+  </si>
+  <si>
+    <t>x32</t>
+  </si>
+  <si>
+    <t>10mm Pistol</t>
+  </si>
+  <si>
+    <t>10mm</t>
+  </si>
+  <si>
+    <t>9mm Pistol</t>
+  </si>
+  <si>
+    <t>10/20/40</t>
+  </si>
+  <si>
+    <t>9mm</t>
   </si>
 </sst>
 </file>
@@ -158,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -172,6 +181,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -505,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -525,186 +541,221 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4">
-        <v>225</v>
-      </c>
-      <c r="D2" s="4" t="s">
+    <row r="2" spans="1:12" s="8" customFormat="1">
+      <c r="A2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>100</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="4">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4">
-        <v>1</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2">
-        <v>12</v>
-      </c>
-      <c r="J2" s="4">
-        <v>3</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="H2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="8">
+        <v>13</v>
+      </c>
+      <c r="J2" s="7">
         <v>2</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
       </c>
       <c r="C3" s="4">
-        <v>320</v>
+        <v>225</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E3" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
         <v>31</v>
       </c>
       <c r="I3">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="J3" s="4">
         <v>3</v>
       </c>
       <c r="K3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" t="s">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" s="4">
-        <v>1500</v>
+        <v>320</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E4" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4" s="4">
         <v>1</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="J4" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1500</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5" s="4">
+        <v>8</v>
+      </c>
+      <c r="K5" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>30</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>30</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>12</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J6" s="4">
         <v>2</v>
       </c>
-      <c r="K5" t="s">
-        <v>2</v>
+      <c r="K6" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/guns.xlsx
+++ b/data/guns.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="4040" windowWidth="19000" windowHeight="15160" tabRatio="500"/>
+    <workbookView xWindow="28900" yWindow="10100" windowWidth="19000" windowHeight="15160" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="weapons.csv" sheetId="1" r:id="rId1"/>
+    <sheet name="Weapons" sheetId="1" r:id="rId1"/>
+    <sheet name="Boxes" sheetId="3" r:id="rId2"/>
+    <sheet name="Mags" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
   <si>
     <t>Qty</t>
   </si>
@@ -99,9 +101,6 @@
     <t>Cauterizing: +2 to Vigor tests to not bleed out.</t>
   </si>
   <si>
-    <t>XShots</t>
-  </si>
-  <si>
     <t>Cell</t>
   </si>
   <si>
@@ -124,14 +123,41 @@
   </si>
   <si>
     <t>9mm</t>
+  </si>
+  <si>
+    <t>Weapon</t>
+  </si>
+  <si>
+    <t>V/R</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>Energy Cell</t>
+  </si>
+  <si>
+    <t>R/P</t>
+  </si>
+  <si>
+    <t>Shots</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -139,9 +165,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -164,10 +198,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -190,8 +232,34 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -523,8 +591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -536,7 +604,7 @@
     <col min="5" max="5" width="4.83203125" style="4" customWidth="1"/>
     <col min="6" max="6" width="5" style="4" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="6"/>
-    <col min="10" max="10" width="10.83203125" style="4"/>
+    <col min="9" max="10" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -564,8 +632,8 @@
       <c r="H1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>26</v>
+      <c r="I1" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>9</v>
@@ -579,10 +647,10 @@
     </row>
     <row r="2" spans="1:12" s="8" customFormat="1">
       <c r="A2" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B2" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" s="7">
         <v>100</v>
@@ -600,9 +668,9 @@
         <v>20</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="8">
+        <v>33</v>
+      </c>
+      <c r="I2" s="7">
         <v>13</v>
       </c>
       <c r="J2" s="7">
@@ -614,10 +682,10 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="4">
         <v>225</v>
@@ -632,12 +700,12 @@
         <v>1</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3">
+        <v>30</v>
+      </c>
+      <c r="I3" s="4">
         <v>12</v>
       </c>
       <c r="J3" s="4">
@@ -670,9 +738,9 @@
         <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4">
+        <v>26</v>
+      </c>
+      <c r="I4" s="4">
         <v>30</v>
       </c>
       <c r="J4" s="4">
@@ -708,9 +776,9 @@
         <v>17</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5">
+        <v>27</v>
+      </c>
+      <c r="I5" s="4">
         <v>5</v>
       </c>
       <c r="J5" s="4">
@@ -728,7 +796,7 @@
         <v>22</v>
       </c>
       <c r="B6" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="4">
         <v>30</v>
@@ -746,15 +814,317 @@
         <v>24</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6">
+        <v>28</v>
+      </c>
+      <c r="I6" s="4">
         <v>12</v>
       </c>
       <c r="J6" s="4">
         <v>2</v>
       </c>
       <c r="K6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="7">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7">
+        <v>35</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4">
+        <f t="shared" ref="F2:F3" si="0">D2*E2</f>
+        <v>35</v>
+      </c>
+      <c r="G2" s="4">
+        <f>C2*F2</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4">
+        <v>30</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G3" s="4">
+        <f>C3*F3</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4">
+        <f>D4*E4</f>
+        <v>40</v>
+      </c>
+      <c r="G4" s="4">
+        <f>C4*F4</f>
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="8" t="str">
+        <f>CONCATENATE(A2," Mag")</f>
+        <v>9mm Pistol Mag</v>
+      </c>
+      <c r="C2" s="7">
+        <v>8</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="11">
+        <f>VLOOKUP(D2,Boxes!A:G,3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F2" s="7">
+        <f>VLOOKUP(A2,Weapons!A:L,9,0)</f>
+        <v>13</v>
+      </c>
+      <c r="G2" s="12">
+        <f>ROUND(1.2*E2*F2,0)</f>
+        <v>16</v>
+      </c>
+      <c r="H2" s="11">
+        <v>1</v>
+      </c>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="8" t="str">
+        <f t="shared" ref="B3:B4" si="0">CONCATENATE(A3," Mag")</f>
+        <v>10mm Pistol Mag</v>
+      </c>
+      <c r="C3" s="4">
+        <v>4</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="11">
+        <f>VLOOKUP(D3,Boxes!A:G,3,0)</f>
+        <v>2</v>
+      </c>
+      <c r="F3" s="7">
+        <f>VLOOKUP(A3,Weapons!A:L,9,0)</f>
+        <v>12</v>
+      </c>
+      <c r="G3" s="12">
+        <f t="shared" ref="G3" si="1">ROUND(1.2*E3*F3,0)</f>
+        <v>29</v>
+      </c>
+      <c r="H3" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Hunting Rifle Mag</v>
+      </c>
+      <c r="C4" s="4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="11">
+        <f>VLOOKUP(D4,Boxes!A:G,3,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F4" s="7">
+        <f>VLOOKUP(A4,Weapons!A:L,9,0)</f>
+        <v>5</v>
+      </c>
+      <c r="G4" s="12">
+        <f>ROUND(1.2*E4*F4,0)</f>
+        <v>24</v>
+      </c>
+      <c r="H4" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="C5" s="4"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="13"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="C6" s="4"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="13"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="4">
+        <v>8</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="13">
+        <v>2</v>
+      </c>
+      <c r="F7" s="4">
+        <v>30</v>
+      </c>
+      <c r="G7" s="14">
+        <f>ROUND(1.2*E7*F7,0)</f>
+        <v>72</v>
+      </c>
+      <c r="H7" s="13">
         <v>1</v>
       </c>
     </row>

--- a/data/guns.xlsx
+++ b/data/guns.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="28900" yWindow="10100" windowWidth="19000" windowHeight="15160" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="28900" yWindow="10100" windowWidth="19000" windowHeight="15160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -153,7 +153,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -591,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -650,7 +649,7 @@
         <v>31</v>
       </c>
       <c r="B2" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" s="7">
         <v>100</v>
@@ -685,7 +684,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4">
         <v>225</v>
@@ -720,7 +719,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="4">
         <v>320</v>
@@ -958,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1006,7 +1005,7 @@
         <v>9mm Pistol Mag</v>
       </c>
       <c r="C2" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>33</v>
@@ -1037,7 +1036,7 @@
         <v>10mm Pistol Mag</v>
       </c>
       <c r="C3" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>30</v>
@@ -1067,7 +1066,7 @@
         <v>Hunting Rifle Mag</v>
       </c>
       <c r="C4" s="4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>27</v>
@@ -1109,7 +1108,7 @@
         <v>37</v>
       </c>
       <c r="C7" s="4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>26</v>

--- a/data/guns.xlsx
+++ b/data/guns.xlsx
@@ -1,18 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Repos/savagewasteland/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7BA023-878C-5745-BF60-7A13572103C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28900" yWindow="10100" windowWidth="19000" windowHeight="15160" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
     <sheet name="Boxes" sheetId="3" r:id="rId2"/>
     <sheet name="Mags" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -21,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="48">
   <si>
     <t>Qty</t>
   </si>
@@ -140,13 +152,37 @@
     <t>R/P</t>
   </si>
   <si>
-    <t>Shots</t>
+    <t>½</t>
+  </si>
+  <si>
+    <t>Fusion Cell</t>
+  </si>
+  <si>
+    <t>Fusion</t>
+  </si>
+  <si>
+    <t>x357</t>
+  </si>
+  <si>
+    <t>x38</t>
+  </si>
+  <si>
+    <t>Heavy Laser Pistol</t>
+  </si>
+  <si>
+    <t>Laser Rifle</t>
+  </si>
+  <si>
+    <t>20/40/80</t>
+  </si>
+  <si>
+    <t>S&amp;W 357 Magnum</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -208,7 +244,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -249,6 +285,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -263,6 +302,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -587,16 +634,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
     <col min="2" max="2" width="5.6640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="11" style="4" customWidth="1"/>
     <col min="4" max="4" width="9" style="4" customWidth="1"/>
@@ -606,7 +653,7 @@
     <col min="9" max="10" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -632,7 +679,7 @@
         <v>11</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>9</v>
@@ -644,12 +691,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1">
+    <row r="2" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="7">
         <v>100</v>
@@ -669,8 +716,9 @@
       <c r="H2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="7">
-        <v>13</v>
+      <c r="I2" s="7" t="str">
+        <f>"m" &amp; VLOOKUP(A2,Mags!A1:I4,6,0)</f>
+        <v>m13</v>
       </c>
       <c r="J2" s="7">
         <v>2</v>
@@ -679,7 +727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -704,8 +752,9 @@
       <c r="H3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="4">
-        <v>12</v>
+      <c r="I3" s="7" t="str">
+        <f>"m" &amp; VLOOKUP(A3,Mags!A2:I5,6,0)</f>
+        <v>m12</v>
       </c>
       <c r="J3" s="4">
         <v>3</v>
@@ -714,114 +763,221 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="4">
+        <v>1500</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="7" t="str">
+        <f>"m" &amp; VLOOKUP(A4,Mags!A3:I6,6,0)</f>
+        <v>m5</v>
+      </c>
+      <c r="J4" s="4">
+        <v>7</v>
+      </c>
+      <c r="K4" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>30</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="7" t="str">
+        <f>"m" &amp; VLOOKUP(A5,Mags!A4:I7,6,0)</f>
+        <v>m12</v>
+      </c>
+      <c r="J5" s="4">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
         <v>320</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E7" s="4">
         <v>0</v>
       </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="4">
-        <v>30</v>
-      </c>
-      <c r="J4" s="4">
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" s="4">
         <v>3</v>
       </c>
-      <c r="K4" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
+      <c r="K7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1500</v>
-      </c>
-      <c r="D5" s="4" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4">
+        <v>400</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="4">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>800</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="4">
-        <v>2</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="4">
-        <v>5</v>
-      </c>
-      <c r="J5" s="4">
-        <v>8</v>
-      </c>
-      <c r="K5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4">
-        <v>30</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="4">
-        <v>12</v>
-      </c>
-      <c r="J6" s="4">
-        <v>2</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="4">
+        <v>6</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4">
+        <v>110</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="4">
+        <v>6</v>
+      </c>
+      <c r="J11" s="4">
+        <v>2</v>
+      </c>
+      <c r="K11" t="s">
         <v>1</v>
       </c>
     </row>
@@ -836,16 +992,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
@@ -868,7 +1024,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>33</v>
       </c>
@@ -893,7 +1049,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
         <v>30</v>
       </c>
@@ -918,7 +1074,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>27</v>
       </c>
@@ -941,6 +1097,56 @@
       <c r="G4" s="4">
         <f>C4*F4</f>
         <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>40</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <f>D5*E5</f>
+        <v>40</v>
+      </c>
+      <c r="G5" s="4">
+        <f>C5*F5</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4">
+        <v>25</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4">
+        <f>D6*E6</f>
+        <v>50</v>
+      </c>
+      <c r="G6" s="4">
+        <f>C6*F6</f>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -954,20 +1160,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="5" max="6" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -996,7 +1203,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>31</v>
       </c>
@@ -1015,24 +1222,23 @@
         <v>1</v>
       </c>
       <c r="F2" s="7">
-        <f>VLOOKUP(A2,Weapons!A:L,9,0)</f>
         <v>13</v>
       </c>
       <c r="G2" s="12">
         <f>ROUND(1.2*E2*F2,0)</f>
         <v>16</v>
       </c>
-      <c r="H2" s="11">
-        <v>1</v>
+      <c r="H2" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="8" t="str">
-        <f t="shared" ref="B3:B4" si="0">CONCATENATE(A3," Mag")</f>
+        <f t="shared" ref="B3:B5" si="0">CONCATENATE(A3," Mag")</f>
         <v>10mm Pistol Mag</v>
       </c>
       <c r="C3" s="4">
@@ -1046,18 +1252,17 @@
         <v>2</v>
       </c>
       <c r="F3" s="7">
-        <f>VLOOKUP(A3,Weapons!A:L,9,0)</f>
         <v>12</v>
       </c>
       <c r="G3" s="12">
         <f t="shared" ref="G3" si="1">ROUND(1.2*E3*F3,0)</f>
         <v>29</v>
       </c>
-      <c r="H3" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="H3" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1076,34 +1281,53 @@
         <v>4</v>
       </c>
       <c r="F4" s="7">
-        <f>VLOOKUP(A4,Weapons!A:L,9,0)</f>
         <v>5</v>
       </c>
       <c r="G4" s="12">
         <f>ROUND(1.2*E4*F4,0)</f>
         <v>24</v>
       </c>
-      <c r="H4" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="C5" s="4"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="13"/>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="H4" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>Pipe Pistol Mag</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="11">
+        <f>VLOOKUP(D5,Boxes!A:G,3,0)</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="4">
+        <v>12</v>
+      </c>
+      <c r="G5" s="12">
+        <f>ROUND(1.2*E5*F5,0)</f>
+        <v>14</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C6" s="4"/>
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
-      <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>37</v>
       </c>
@@ -1120,10 +1344,34 @@
         <v>30</v>
       </c>
       <c r="G7" s="14">
-        <f>ROUND(1.2*E7*F7,0)</f>
-        <v>72</v>
-      </c>
-      <c r="H7" s="13">
+        <f>E7*F7</f>
+        <v>60</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3</v>
+      </c>
+      <c r="F8" s="4">
+        <v>25</v>
+      </c>
+      <c r="G8" s="14">
+        <f>E8*F8</f>
+        <v>75</v>
+      </c>
+      <c r="H8" s="4">
         <v>1</v>
       </c>
     </row>

--- a/data/guns.xlsx
+++ b/data/guns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Repos/savagewasteland/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7BA023-878C-5745-BF60-7A13572103C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD0E90D-E1AC-A441-98FC-40930DCAEB86}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="57">
   <si>
     <t>Qty</t>
   </si>
@@ -177,6 +177,33 @@
   </si>
   <si>
     <t>S&amp;W 357 Magnum</t>
+  </si>
+  <si>
+    <t>Single Shotgun</t>
+  </si>
+  <si>
+    <t>10/20/30</t>
+  </si>
+  <si>
+    <t>Combat Shotgun</t>
+  </si>
+  <si>
+    <t>12/24/36</t>
+  </si>
+  <si>
+    <t>(3/2/1)d6</t>
+  </si>
+  <si>
+    <t>(3/2/1)d4</t>
+  </si>
+  <si>
+    <t>Shotgun: +2 to Shooting, but damage depends on range.</t>
+  </si>
+  <si>
+    <t>20 Gauge</t>
+  </si>
+  <si>
+    <t>12 Gauge</t>
   </si>
 </sst>
 </file>
@@ -244,10 +271,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -287,6 +313,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -635,53 +673,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.83203125" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11" style="4" customWidth="1"/>
-    <col min="4" max="4" width="9" style="4" customWidth="1"/>
-    <col min="5" max="5" width="4.83203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="5" style="4" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="6"/>
-    <col min="9" max="10" width="10.83203125" style="4"/>
+    <col min="2" max="2" width="5.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9" style="3" customWidth="1"/>
+    <col min="5" max="5" width="4.83203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="5"/>
+    <col min="8" max="8" width="10.83203125" style="20"/>
+    <col min="9" max="10" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -691,39 +730,39 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="7">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7">
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
         <v>100</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="7">
-        <v>1</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="7" t="str">
+      <c r="I2" s="6" t="str">
         <f>"m" &amp; VLOOKUP(A2,Mags!A1:I4,6,0)</f>
         <v>m13</v>
       </c>
-      <c r="J2" s="7">
-        <v>2</v>
-      </c>
-      <c r="K2" s="8" t="s">
+      <c r="J2" s="6">
+        <v>2</v>
+      </c>
+      <c r="K2" s="7" t="s">
         <v>1</v>
       </c>
     </row>
@@ -731,32 +770,32 @@
       <c r="A3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
         <v>225</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
-        <v>1</v>
-      </c>
-      <c r="G3" s="6" t="s">
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="7" t="str">
+      <c r="I3" s="6" t="str">
         <f>"m" &amp; VLOOKUP(A3,Mags!A2:I5,6,0)</f>
         <v>m12</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="3">
         <v>3</v>
       </c>
       <c r="K3" t="s">
@@ -767,32 +806,32 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
         <v>1500</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4">
-        <v>2</v>
-      </c>
-      <c r="F4" s="4">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6" t="s">
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="7" t="str">
+      <c r="I4" s="6" t="str">
         <f>"m" &amp; VLOOKUP(A4,Mags!A3:I6,6,0)</f>
         <v>m5</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="3">
         <v>7</v>
       </c>
       <c r="K4" t="s">
@@ -806,32 +845,32 @@
       <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
         <v>30</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>0</v>
       </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6" t="s">
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="7" t="str">
+      <c r="I5" s="6" t="str">
         <f>"m" &amp; VLOOKUP(A5,Mags!A4:I7,6,0)</f>
         <v>m12</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>2</v>
       </c>
       <c r="K5" t="s">
@@ -839,34 +878,34 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H6" s="2"/>
+      <c r="H6" s="21"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
         <v>320</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>0</v>
       </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6" t="s">
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="3">
         <v>3</v>
       </c>
       <c r="K7" t="s">
@@ -880,28 +919,28 @@
       <c r="A8" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="4">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
         <v>400</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>0</v>
       </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="3">
         <v>3</v>
       </c>
       <c r="K8" t="s">
@@ -915,28 +954,28 @@
       <c r="A9" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
         <v>800</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6" t="s">
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="3">
         <v>6</v>
       </c>
       <c r="K9" t="s">
@@ -950,35 +989,111 @@
       <c r="A11" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="4">
-        <v>1</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
         <v>110</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4">
-        <v>1</v>
-      </c>
-      <c r="G11" s="9" t="s">
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>6</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="3">
         <v>2</v>
       </c>
       <c r="K11" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>80</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3">
+        <v>5</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>140</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="3">
+        <v>6</v>
+      </c>
+      <c r="J14" s="3">
+        <v>9</v>
+      </c>
+      <c r="K14" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -993,108 +1108,108 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="6">
         <v>4</v>
       </c>
-      <c r="C2" s="7">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7">
+      <c r="C2" s="6">
+        <v>1</v>
+      </c>
+      <c r="D2" s="6">
         <v>35</v>
       </c>
-      <c r="E2" s="7">
-        <v>1</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
         <f t="shared" ref="F2:F3" si="0">D2*E2</f>
         <v>35</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <f>C2*F2</f>
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="4">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
         <v>30</v>
       </c>
-      <c r="E3" s="4">
-        <v>1</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="3">
         <f>C3*F3</f>
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
         <v>4</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>20</v>
       </c>
-      <c r="E4" s="4">
-        <v>2</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3">
         <f>D4*E4</f>
         <v>40</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="3">
         <f>C4*F4</f>
         <v>160</v>
       </c>
@@ -1103,23 +1218,23 @@
       <c r="A5" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
         <v>40</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
         <f>D5*E5</f>
         <v>40</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="3">
         <f>C5*F5</f>
         <v>40</v>
       </c>
@@ -1128,25 +1243,75 @@
       <c r="A6" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4">
-        <v>2</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
         <v>25</v>
       </c>
-      <c r="E6" s="4">
-        <v>2</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="3">
         <f>D6*E6</f>
         <v>50</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="3">
         <f>C6*F6</f>
         <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3">
+        <f>D8*E8</f>
+        <v>24</v>
+      </c>
+      <c r="G8" s="3">
+        <f>C8*F8</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3">
+        <f>D9*E9</f>
+        <v>20</v>
+      </c>
+      <c r="G9" s="3">
+        <f>C9*F9</f>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1171,7 +1336,7 @@
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="17.83203125" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="4"/>
+    <col min="5" max="6" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -1181,22 +1346,22 @@
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>9</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1204,61 +1369,61 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="8" t="str">
+      <c r="B2" s="7" t="str">
         <f>CONCATENATE(A2," Mag")</f>
         <v>9mm Pistol Mag</v>
       </c>
-      <c r="C2" s="7">
-        <v>2</v>
-      </c>
-      <c r="D2" s="11" t="s">
+      <c r="C2" s="6">
+        <v>2</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="10">
         <f>VLOOKUP(D2,Boxes!A:G,3,0)</f>
         <v>1</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>13</v>
       </c>
-      <c r="G2" s="12">
+      <c r="G2" s="11">
         <f>ROUND(1.2*E2*F2,0)</f>
         <v>16</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="8"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="8" t="str">
+      <c r="B3" s="7" t="str">
         <f t="shared" ref="B3:B5" si="0">CONCATENATE(A3," Mag")</f>
         <v>10mm Pistol Mag</v>
       </c>
-      <c r="C3" s="4">
-        <v>2</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <f>VLOOKUP(D3,Boxes!A:G,3,0)</f>
         <v>2</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>12</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="11">
         <f t="shared" ref="G3" si="1">ROUND(1.2*E3*F3,0)</f>
         <v>29</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1266,28 +1431,28 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8" t="str">
+      <c r="B4" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Hunting Rifle Mag</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>0</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <f>VLOOKUP(D4,Boxes!A:G,3,0)</f>
         <v>4</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <v>5</v>
       </c>
-      <c r="G4" s="12">
+      <c r="G4" s="11">
         <f>ROUND(1.2*E4*F4,0)</f>
         <v>24</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1295,59 +1460,59 @@
       <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="8" t="str">
+      <c r="B5" s="7" t="str">
         <f t="shared" si="0"/>
         <v>Pipe Pistol Mag</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>0</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <f>VLOOKUP(D5,Boxes!A:G,3,0)</f>
         <v>1</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>12</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="11">
         <f>ROUND(1.2*E5*F5,0)</f>
         <v>14</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="12" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C6" s="4"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="13"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>0</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="13">
-        <v>2</v>
-      </c>
-      <c r="F7" s="4">
+      <c r="E7" s="12">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3">
         <v>30</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="13">
         <f>E7*F7</f>
         <v>60</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="12" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1355,23 +1520,23 @@
       <c r="B8" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="4">
-        <v>1</v>
-      </c>
-      <c r="D8" s="13" t="s">
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>3</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="3">
         <v>25</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <f>E8*F8</f>
         <v>75</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="3">
         <v>1</v>
       </c>
     </row>

--- a/data/guns.xlsx
+++ b/data/guns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Repos/savagewasteland/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD0E90D-E1AC-A441-98FC-40930DCAEB86}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A5AC9A-F643-444A-83B1-2F3CFAE77C05}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -176,9 +176,6 @@
     <t>20/40/80</t>
   </si>
   <si>
-    <t>S&amp;W 357 Magnum</t>
-  </si>
-  <si>
     <t>Single Shotgun</t>
   </si>
   <si>
@@ -204,6 +201,9 @@
   </si>
   <si>
     <t>12 Gauge</t>
+  </si>
+  <si>
+    <t>S&amp;W .357 Magnum</t>
   </si>
 </sst>
 </file>
@@ -675,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -926,7 +926,7 @@
         <v>400</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>16</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J8" s="3">
         <v>3</v>
@@ -987,7 +987,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B11" s="3">
         <v>1</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
@@ -1031,7 +1031,7 @@
         <v>80</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E13" s="3">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I13" s="3">
         <v>1</v>
@@ -1055,12 +1055,12 @@
         <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
@@ -1069,7 +1069,7 @@
         <v>140</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1078,10 +1078,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I14" s="3">
         <v>6</v>
@@ -1093,7 +1093,7 @@
         <v>5</v>
       </c>
       <c r="L14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1110,7 +1110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -1266,7 +1266,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
@@ -1291,7 +1291,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>

--- a/data/guns.xlsx
+++ b/data/guns.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Repos/savagewasteland/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A5AC9A-F643-444A-83B1-2F3CFAE77C05}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B59DEC7-C495-534B-A19A-2356FA57A5DF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,11 @@
     <sheet name="Boxes" sheetId="3" r:id="rId2"/>
     <sheet name="Mags" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -203,7 +202,7 @@
     <t>12 Gauge</t>
   </si>
   <si>
-    <t>S&amp;W .357 Magnum</t>
+    <t>S&amp;W 357 Magnum</t>
   </si>
 </sst>
 </file>
@@ -676,7 +675,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/guns.xlsx
+++ b/data/guns.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Repos/savagewasteland/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B59DEC7-C495-534B-A19A-2356FA57A5DF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924E3072-25D7-1449-B3F9-AB3159F2F4CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
     <sheet name="Boxes" sheetId="3" r:id="rId2"/>
     <sheet name="Mags" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -674,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -734,7 +735,7 @@
         <v>31</v>
       </c>
       <c r="B2" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="6">
         <v>100</v>
@@ -770,7 +771,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="3">
         <v>225</v>
@@ -806,7 +807,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3">
         <v>1500</v>
@@ -845,7 +846,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="3">
         <v>30</v>
@@ -884,7 +885,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="3">
         <v>320</v>
@@ -919,7 +920,7 @@
         <v>44</v>
       </c>
       <c r="B8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="3">
         <v>400</v>
@@ -954,7 +955,7 @@
         <v>45</v>
       </c>
       <c r="B9" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="3">
         <v>800</v>
@@ -989,7 +990,7 @@
         <v>56</v>
       </c>
       <c r="B11" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C11" s="3">
         <v>110</v>
@@ -1062,7 +1063,7 @@
         <v>49</v>
       </c>
       <c r="B14" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="3">
         <v>140</v>
@@ -1086,7 +1087,7 @@
         <v>6</v>
       </c>
       <c r="J14" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K14" t="s">
         <v>5</v>
@@ -1109,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1143,7 +1144,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -1168,7 +1169,7 @@
         <v>30</v>
       </c>
       <c r="B3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
@@ -1193,7 +1194,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3">
         <v>4</v>
@@ -1218,7 +1219,7 @@
         <v>43</v>
       </c>
       <c r="B5" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -1243,7 +1244,7 @@
         <v>42</v>
       </c>
       <c r="B6" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
@@ -1293,7 +1294,7 @@
         <v>55</v>
       </c>
       <c r="B9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
@@ -1328,7 +1329,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1376,7 +1377,7 @@
         <v>9mm Pistol Mag</v>
       </c>
       <c r="C2" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>33</v>
@@ -1406,7 +1407,7 @@
         <v>10mm Pistol Mag</v>
       </c>
       <c r="C3" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>30</v>
@@ -1435,7 +1436,7 @@
         <v>Hunting Rifle Mag</v>
       </c>
       <c r="C4" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>27</v>
@@ -1496,7 +1497,7 @@
         <v>37</v>
       </c>
       <c r="C7" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D7" s="12" t="s">
         <v>26</v>
@@ -1520,7 +1521,7 @@
         <v>40</v>
       </c>
       <c r="C8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>41</v>

--- a/data/guns.xlsx
+++ b/data/guns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Repos/savagewasteland/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{924E3072-25D7-1449-B3F9-AB3159F2F4CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E067CE3B-8EDA-EC48-BBA3-A0B071AF05AA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -1110,7 +1110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1328,8 +1328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1407,7 +1407,7 @@
         <v>10mm Pistol Mag</v>
       </c>
       <c r="C3" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>30</v>
@@ -1465,7 +1465,7 @@
         <v>Pipe Pistol Mag</v>
       </c>
       <c r="C5" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>43</v>

--- a/data/guns.xlsx
+++ b/data/guns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Repos/savagewasteland/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E067CE3B-8EDA-EC48-BBA3-A0B071AF05AA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CD689A-531E-5545-8953-62CD83758A2E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
@@ -1110,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1144,7 +1144,7 @@
         <v>33</v>
       </c>
       <c r="B2" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
@@ -1169,7 +1169,7 @@
         <v>30</v>
       </c>
       <c r="B3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
@@ -1194,7 +1194,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3">
         <v>4</v>
@@ -1219,7 +1219,7 @@
         <v>43</v>
       </c>
       <c r="B5" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -1244,7 +1244,7 @@
         <v>42</v>
       </c>
       <c r="B6" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
@@ -1269,7 +1269,7 @@
         <v>54</v>
       </c>
       <c r="B8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -1294,7 +1294,7 @@
         <v>55</v>
       </c>
       <c r="B9" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C9" s="3">
         <v>2</v>
@@ -1328,7 +1328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>

--- a/data/guns.xlsx
+++ b/data/guns.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10715"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Repos/savagewasteland/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CD689A-531E-5545-8953-62CD83758A2E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144AF409-A027-8F4C-BFF7-B202E89E817D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44820" yWindow="600" windowWidth="33600" windowHeight="18940" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
     <sheet name="Boxes" sheetId="3" r:id="rId2"/>
     <sheet name="Mags" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="73">
   <si>
     <t>Qty</t>
   </si>
@@ -204,6 +203,54 @@
   </si>
   <si>
     <t>S&amp;W 357 Magnum</t>
+  </si>
+  <si>
+    <t>Missile Launcher</t>
+  </si>
+  <si>
+    <t>Frag Grenade</t>
+  </si>
+  <si>
+    <t>Varies</t>
+  </si>
+  <si>
+    <t>3d6</t>
+  </si>
+  <si>
+    <t>5/10/20</t>
+  </si>
+  <si>
+    <t>Missile</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Throwable, Area Effect (pg 97), Can be Evaded (pg 100)</t>
+  </si>
+  <si>
+    <t>Effect and damage varries per missile.</t>
+  </si>
+  <si>
+    <t>20/40/120</t>
+  </si>
+  <si>
+    <t>Assault Rifle</t>
+  </si>
+  <si>
+    <t>m24</t>
+  </si>
+  <si>
+    <t>Three Round Burst (pg 67)</t>
+  </si>
+  <si>
+    <t>1*</t>
+  </si>
+  <si>
+    <t>5x56</t>
   </si>
 </sst>
 </file>
@@ -299,14 +346,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -325,6 +366,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -673,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -688,11 +735,12 @@
     <col min="5" max="5" width="4.83203125" style="3" customWidth="1"/>
     <col min="6" max="6" width="5" style="3" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="5"/>
-    <col min="8" max="8" width="10.83203125" style="20"/>
+    <col min="8" max="8" width="10.83203125" style="18"/>
     <col min="9" max="10" width="10.83203125" style="3"/>
+    <col min="12" max="12" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -714,7 +762,7 @@
       <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="16" t="s">
         <v>11</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -726,11 +774,14 @@
       <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>31</v>
       </c>
@@ -752,7 +803,7 @@
       <c r="G2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="17" t="s">
         <v>33</v>
       </c>
       <c r="I2" s="6" t="str">
@@ -765,8 +816,11 @@
       <c r="K2" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L2" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -788,7 +842,7 @@
       <c r="G3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="18" t="s">
         <v>30</v>
       </c>
       <c r="I3" s="6" t="str">
@@ -801,13 +855,16 @@
       <c r="K3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L3" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3">
         <v>1500</v>
@@ -824,11 +881,11 @@
       <c r="G4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="19" t="s">
         <v>27</v>
       </c>
       <c r="I4" s="6" t="str">
-        <f>"m" &amp; VLOOKUP(A4,Mags!A3:I6,6,0)</f>
+        <f>"m" &amp; VLOOKUP(A4,Mags!A3:I7,6,0)</f>
         <v>m5</v>
       </c>
       <c r="J4" s="3">
@@ -837,11 +894,14 @@
       <c r="K4" t="s">
         <v>5</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="3">
+        <v>6</v>
+      </c>
+      <c r="M4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -863,11 +923,11 @@
       <c r="G5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="19" t="s">
         <v>28</v>
       </c>
       <c r="I5" s="6" t="str">
-        <f>"m" &amp; VLOOKUP(A5,Mags!A4:I7,6,0)</f>
+        <f>"m" &amp; VLOOKUP(A5,Mags!A4:I8,6,0)</f>
         <v>m12</v>
       </c>
       <c r="J5" s="3">
@@ -876,57 +936,66 @@
       <c r="K5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H6" s="21"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="L5" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="3">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3">
+        <v>800</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="F6" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="3">
+        <v>7</v>
+      </c>
+      <c r="K6" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="3">
+        <v>5</v>
+      </c>
+      <c r="M6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H7" s="19"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
         <v>320</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="3">
-        <v>3</v>
-      </c>
-      <c r="K7" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="3">
-        <v>2</v>
-      </c>
-      <c r="C8" s="3">
-        <v>400</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -937,8 +1006,8 @@
       <c r="G8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="20" t="s">
-        <v>40</v>
+      <c r="H8" s="18" t="s">
+        <v>37</v>
       </c>
       <c r="J8" s="3">
         <v>3</v>
@@ -946,154 +1015,277 @@
       <c r="K8" t="s">
         <v>1</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" s="3">
+        <v>6</v>
+      </c>
+      <c r="M8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" s="3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="J9" s="3">
+        <v>3</v>
+      </c>
+      <c r="K9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3">
+        <v>6</v>
+      </c>
+      <c r="M9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>800</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="H10" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J10" s="3">
         <v>6</v>
       </c>
-      <c r="K9" t="s">
-        <v>1</v>
-      </c>
-      <c r="L9" t="s">
+      <c r="K10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3">
+        <v>6</v>
+      </c>
+      <c r="M10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="3">
-        <v>3</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="B12" s="3">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
         <v>110</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="8" t="s">
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="H12" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I12" s="3">
         <v>6</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J12" s="3">
         <v>2</v>
       </c>
-      <c r="K11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="K12" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
         <v>80</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="5" t="s">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H14" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="3">
-        <v>1</v>
-      </c>
-      <c r="J13" s="3">
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
         <v>5</v>
       </c>
-      <c r="K13" t="s">
-        <v>1</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="K14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="3">
+        <v>6</v>
+      </c>
+      <c r="M14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="3">
-        <v>2</v>
-      </c>
-      <c r="C14" s="3">
+      <c r="B15" s="3">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3">
         <v>140</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="5" t="s">
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H15" t="s">
         <v>55</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I15" s="3">
         <v>6</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J15" s="3">
         <v>7</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K15" t="s">
         <v>5</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L15" s="3">
+        <v>6</v>
+      </c>
+      <c r="M15" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>4000</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" s="3">
+        <v>14</v>
+      </c>
+      <c r="K17" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="3">
+        <v>4</v>
+      </c>
+      <c r="M17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>150</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1108,16 +1300,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -1140,7 +1332,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="6">
@@ -1165,7 +1357,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="3">
@@ -1190,7 +1382,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="3">
@@ -1244,7 +1436,7 @@
         <v>42</v>
       </c>
       <c r="B6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
@@ -1264,53 +1456,78 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
-        <v>12</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2</v>
-      </c>
-      <c r="F8" s="3">
-        <f>D8*E8</f>
-        <v>24</v>
-      </c>
-      <c r="G8" s="3">
-        <f>C8*F8</f>
-        <v>24</v>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="3">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>30</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <f>D7*E7</f>
+        <v>30</v>
+      </c>
+      <c r="G7" s="3">
+        <f>C7*F7</f>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="3">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E9" s="3">
         <v>2</v>
       </c>
       <c r="F9" s="3">
         <f>D9*E9</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G9" s="3">
         <f>C9*F9</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3">
+        <f>D10*E10</f>
+        <v>20</v>
+      </c>
+      <c r="G10" s="3">
+        <f>C10*F10</f>
         <v>40</v>
       </c>
     </row>
@@ -1326,17 +1543,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="17.83203125" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="3"/>
+    <col min="3" max="8" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -1377,7 +1594,7 @@
         <v>9mm Pistol Mag</v>
       </c>
       <c r="C2" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>33</v>
@@ -1389,11 +1606,11 @@
       <c r="F2" s="6">
         <v>13</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="20">
         <f>ROUND(1.2*E2*F2,0)</f>
         <v>16</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="15" t="s">
         <v>39</v>
       </c>
       <c r="I2" s="7"/>
@@ -1403,13 +1620,13 @@
         <v>29</v>
       </c>
       <c r="B3" s="7" t="str">
-        <f t="shared" ref="B3:B5" si="0">CONCATENATE(A3," Mag")</f>
+        <f t="shared" ref="B3:B6" si="0">CONCATENATE(A3," Mag")</f>
         <v>10mm Pistol Mag</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="10">
@@ -1419,11 +1636,11 @@
       <c r="F3" s="6">
         <v>12</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="20">
         <f t="shared" ref="G3" si="1">ROUND(1.2*E3*F3,0)</f>
         <v>29</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1436,7 +1653,7 @@
         <v>Hunting Rifle Mag</v>
       </c>
       <c r="C4" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>27</v>
@@ -1448,11 +1665,11 @@
       <c r="F4" s="6">
         <v>5</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="20">
         <f>ROUND(1.2*E4*F4,0)</f>
         <v>24</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1465,9 +1682,9 @@
         <v>Pipe Pistol Mag</v>
       </c>
       <c r="C5" s="3">
-        <v>4</v>
-      </c>
-      <c r="D5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>43</v>
       </c>
       <c r="E5" s="10">
@@ -1477,68 +1694,98 @@
       <c r="F5" s="3">
         <v>12</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="20">
         <f>ROUND(1.2*E5*F5,0)</f>
         <v>14</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C6" s="3"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="12"/>
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>Assault Rifle Mag</v>
+      </c>
+      <c r="C6" s="3">
+        <v>6</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="10">
+        <v>3</v>
+      </c>
+      <c r="F6" s="3">
+        <v>30</v>
+      </c>
+      <c r="G6" s="20">
+        <f>ROUND(1.2*E6*F6,0)</f>
+        <v>108</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="3">
-        <v>4</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="12">
-        <v>2</v>
-      </c>
-      <c r="F7" s="3">
-        <v>30</v>
-      </c>
-      <c r="G7" s="13">
-        <f>E7*F7</f>
-        <v>60</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>39</v>
-      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="11">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>30</v>
+      </c>
+      <c r="G8" s="21">
+        <f>E8*F8</f>
+        <v>60</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="3">
-        <v>2</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E9" s="3">
         <v>3</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F9" s="3">
         <v>25</v>
       </c>
-      <c r="G8" s="13">
-        <f>E8*F8</f>
+      <c r="G9" s="21">
+        <f>E9*F9</f>
         <v>75</v>
       </c>
-      <c r="H8" s="3">
-        <v>1</v>
-      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D11" s="11"/>
+      <c r="G11" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/guns.xlsx
+++ b/data/guns.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Repos/savagewasteland/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144AF409-A027-8F4C-BFF7-B202E89E817D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1588EA36-78BA-6C44-879D-79712E8A257A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44820" yWindow="600" windowWidth="33600" windowHeight="18940" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapons" sheetId="1" r:id="rId1"/>
     <sheet name="Boxes" sheetId="3" r:id="rId2"/>
     <sheet name="Mags" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="106">
   <si>
     <t>Qty</t>
   </si>
@@ -100,9 +101,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Pipe Pistol</t>
-  </si>
-  <si>
     <t>2d4</t>
   </si>
   <si>
@@ -118,9 +116,6 @@
     <t>x308</t>
   </si>
   <si>
-    <t>x32</t>
-  </si>
-  <si>
     <t>10mm Pistol</t>
   </si>
   <si>
@@ -251,6 +246,111 @@
   </si>
   <si>
     <t>5x56</t>
+  </si>
+  <si>
+    <t>10mm SMG</t>
+  </si>
+  <si>
+    <t>m20</t>
+  </si>
+  <si>
+    <t>Full Auto: Spend 10 bullets for 3 shooting dice, -2 recoil penalty.</t>
+  </si>
+  <si>
+    <t>Sniper Rifle</t>
+  </si>
+  <si>
+    <t>Gauss Rifle</t>
+  </si>
+  <si>
+    <t>Anti-Material Rifle</t>
+  </si>
+  <si>
+    <t>x50</t>
+  </si>
+  <si>
+    <t>2d10</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>30/60/120</t>
+  </si>
+  <si>
+    <t>50/100/200</t>
+  </si>
+  <si>
+    <t>m6</t>
+  </si>
+  <si>
+    <t>d8</t>
+  </si>
+  <si>
+    <t>m8</t>
+  </si>
+  <si>
+    <t>Snapfire, Heavy Weapon, Comes with Bipod, Scope</t>
+  </si>
+  <si>
+    <t>Comes with Scope</t>
+  </si>
+  <si>
+    <t>40/80/160</t>
+  </si>
+  <si>
+    <t>9mm Pistol Mag</t>
+  </si>
+  <si>
+    <t>10mm Pistol Mag</t>
+  </si>
+  <si>
+    <t>Hunting Rifle Mag</t>
+  </si>
+  <si>
+    <t>Assault Rifle Mag</t>
+  </si>
+  <si>
+    <t>Pipe Revolver</t>
+  </si>
+  <si>
+    <t>10mm SMG Mag</t>
+  </si>
+  <si>
+    <t>Pipe Revolver Rifle</t>
+  </si>
+  <si>
+    <t>2mm EC</t>
+  </si>
+  <si>
+    <t>Heavy Weapon, Bonus Crit (+2d6 on two raises)</t>
+  </si>
+  <si>
+    <t>Requires special reloading / energy recharging.</t>
+  </si>
+  <si>
+    <t>2mm EC Drum</t>
+  </si>
+  <si>
+    <t>Frag Mine</t>
+  </si>
+  <si>
+    <t>Concealable, Area Effect (pg 97), Can be Evaded (pg 100)</t>
+  </si>
+  <si>
+    <t>Medium Blast</t>
+  </si>
+  <si>
+    <t>3d8</t>
+  </si>
+  <si>
+    <t>Large Blast</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Bouncing Betty</t>
   </si>
 </sst>
 </file>
@@ -720,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -736,8 +836,8 @@
     <col min="6" max="6" width="5" style="3" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="5"/>
     <col min="8" max="8" width="10.83203125" style="18"/>
-    <col min="9" max="10" width="10.83203125" style="3"/>
-    <col min="12" max="12" width="10.83203125" style="3"/>
+    <col min="9" max="12" width="10.83203125" style="3"/>
+    <col min="13" max="13" width="10.83203125" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -766,72 +866,71 @@
         <v>11</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="6">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6">
-        <v>100</v>
-      </c>
-      <c r="D2" s="6" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="3">
         <v>3</v>
       </c>
-      <c r="E2" s="6">
-        <v>1</v>
-      </c>
-      <c r="F2" s="6">
-        <v>1</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="6" t="str">
-        <f>"m" &amp; VLOOKUP(A2,Mags!A1:I4,6,0)</f>
-        <v>m13</v>
-      </c>
-      <c r="J2" s="6">
+      <c r="C2" s="3">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="6">
+        <v>6</v>
+      </c>
+      <c r="J2" s="3">
         <v>2</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="6">
-        <v>6</v>
+      <c r="K2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="B3" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3">
-        <v>225</v>
+        <v>60</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="E3" s="3">
         <v>1</v>
@@ -840,452 +939,737 @@
         <v>1</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="6" t="str">
-        <f>"m" &amp; VLOOKUP(A3,Mags!A2:I5,6,0)</f>
-        <v>m12</v>
+      <c r="H3" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="6">
+        <v>6</v>
       </c>
       <c r="J3" s="3">
         <v>3</v>
       </c>
-      <c r="K3" t="s">
-        <v>1</v>
+      <c r="K3" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L3" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H4" s="19"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6">
+        <v>100</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="6" t="str">
+        <f>"m" &amp; VLOOKUP(A5,Mags!A1:I8,6,0)</f>
+        <v>m13</v>
+      </c>
+      <c r="J5" s="6">
+        <v>2</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1500</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="3">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="6" t="str">
-        <f>"m" &amp; VLOOKUP(A4,Mags!A3:I7,6,0)</f>
-        <v>m5</v>
-      </c>
-      <c r="J4" s="3">
-        <v>7</v>
-      </c>
-      <c r="K4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" s="3">
-        <v>6</v>
-      </c>
-      <c r="M4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>30</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="6" t="str">
-        <f>"m" &amp; VLOOKUP(A5,Mags!A4:I8,6,0)</f>
-        <v>m12</v>
-      </c>
-      <c r="J5" s="3">
-        <v>2</v>
-      </c>
-      <c r="K5" t="s">
-        <v>1</v>
-      </c>
-      <c r="L5" s="3">
-        <v>4</v>
-      </c>
+      <c r="M5" s="17"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>225</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="6" t="str">
+        <f>"m" &amp; VLOOKUP(A6,Mags!A2:I8,6,0)</f>
+        <v>m12</v>
+      </c>
+      <c r="J6" s="3">
+        <v>3</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3">
         <v>6</v>
       </c>
-      <c r="C6" s="3">
-        <v>800</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="3">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="3">
         <v>2</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="19" t="s">
+      <c r="C7" s="3">
+        <v>1800</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="J6" s="3">
-        <v>7</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="J7" s="3">
         <v>5</v>
       </c>
-      <c r="L6" s="3">
+      <c r="K7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="H7" s="19"/>
+      <c r="L7" s="3">
+        <v>4</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>320</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="3">
-        <v>3</v>
-      </c>
-      <c r="K8" t="s">
-        <v>1</v>
-      </c>
-      <c r="L8" s="3">
-        <v>6</v>
-      </c>
-      <c r="M8" t="s">
-        <v>25</v>
-      </c>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="B9" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3">
-        <v>400</v>
+        <v>5000</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>40</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="I9" s="6"/>
       <c r="J9" s="3">
-        <v>3</v>
-      </c>
-      <c r="K9" t="s">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L9" s="3">
-        <v>6</v>
-      </c>
-      <c r="M9" t="s">
-        <v>25</v>
+        <v>4</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="B10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3">
-        <v>800</v>
+        <v>4000</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="E10" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>40</v>
+        <v>77</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="J10" s="3">
-        <v>6</v>
-      </c>
-      <c r="K10" t="s">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="L10" s="3">
         <v>6</v>
       </c>
-      <c r="M10" t="s">
-        <v>25</v>
-      </c>
+      <c r="M10" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="3">
-        <v>110</v>
+        <v>3000</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>20</v>
+      <c r="G12" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="3">
+        <v>26</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" s="3">
         <v>6</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L12" s="3">
+        <v>5</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1500</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="3">
         <v>2</v>
       </c>
-      <c r="K12" t="s">
-        <v>1</v>
-      </c>
-      <c r="L12" s="3">
+      <c r="F13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="6" t="str">
+        <f>"m" &amp; VLOOKUP(A13,Mags!A3:I10,6,0)</f>
+        <v>m5</v>
+      </c>
+      <c r="J13" s="3">
+        <v>7</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="3">
         <v>6</v>
       </c>
+      <c r="M13" s="18" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="3">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>80</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I14" s="3">
-        <v>1</v>
-      </c>
-      <c r="J14" s="3">
-        <v>5</v>
-      </c>
-      <c r="K14" t="s">
-        <v>1</v>
-      </c>
-      <c r="L14" s="3">
-        <v>6</v>
-      </c>
-      <c r="M14" t="s">
-        <v>53</v>
-      </c>
+      <c r="H14" s="19"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="B15" s="3">
         <v>0</v>
       </c>
       <c r="C15" s="3">
-        <v>140</v>
+        <v>800</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" s="3">
-        <v>6</v>
+        <v>44</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>67</v>
       </c>
       <c r="J15" s="3">
         <v>7</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L15" s="3">
-        <v>6</v>
-      </c>
-      <c r="M15" t="s">
-        <v>53</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H16" s="19"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="B17" s="3">
         <v>0</v>
       </c>
       <c r="C17" s="3">
-        <v>4000</v>
+        <v>320</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>59</v>
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
       </c>
       <c r="F17" s="3">
         <v>1</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="J17" s="3">
-        <v>14</v>
-      </c>
-      <c r="K17" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="L17" s="3">
-        <v>4</v>
-      </c>
-      <c r="M17" t="s">
-        <v>66</v>
+        <v>6</v>
+      </c>
+      <c r="M17" s="18" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3">
+        <v>400</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="3">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" s="3">
+        <v>6</v>
+      </c>
+      <c r="M18" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="3">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3">
+        <v>800</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="3">
+        <v>6</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19" s="3">
+        <v>6</v>
+      </c>
+      <c r="M19" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>110</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="3">
+        <v>6</v>
+      </c>
+      <c r="J21" s="3">
+        <v>2</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L21" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3">
+        <v>80</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1</v>
+      </c>
+      <c r="J23" s="3">
+        <v>5</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L23" s="3">
+        <v>6</v>
+      </c>
+      <c r="M23" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3">
+        <v>140</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" t="s">
+        <v>53</v>
+      </c>
+      <c r="I24" s="3">
+        <v>6</v>
+      </c>
+      <c r="J24" s="3">
+        <v>7</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24" s="3">
+        <v>6</v>
+      </c>
+      <c r="M24" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3">
+        <v>4000</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="J26" s="3">
+        <v>14</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" s="3">
+        <v>4</v>
+      </c>
+      <c r="M26" s="18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0</v>
+      </c>
+      <c r="C27" s="3">
+        <v>150</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="3">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3">
-        <v>150</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1</v>
-      </c>
-      <c r="G18" s="5" t="s">
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="H18" s="18" t="s">
+      <c r="J27" s="3">
+        <v>1</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="J18" s="3">
-        <v>1</v>
-      </c>
-      <c r="K18" t="s">
-        <v>1</v>
-      </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" t="s">
-        <v>65</v>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" s="3">
+        <v>6</v>
+      </c>
+      <c r="C28" s="3">
+        <v>75</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H28" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="J28" s="3">
+        <v>1</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="3">
+        <v>3</v>
+      </c>
+      <c r="C29" s="3">
+        <v>200</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="J29" s="3">
+        <v>9</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="18" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1300,10 +1684,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1316,16 +1700,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>21</v>
@@ -1333,7 +1717,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
@@ -1352,16 +1736,16 @@
         <v>35</v>
       </c>
       <c r="G2" s="3">
-        <f>C2*F2</f>
+        <f t="shared" ref="G2:G7" si="1">C2*F2</f>
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
@@ -1377,16 +1761,16 @@
         <v>30</v>
       </c>
       <c r="G3" s="3">
-        <f>C3*F3</f>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3">
         <v>4</v>
@@ -1402,16 +1786,16 @@
         <v>40</v>
       </c>
       <c r="G4" s="3">
-        <f>C4*F4</f>
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" s="3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -1427,16 +1811,16 @@
         <v>40</v>
       </c>
       <c r="G5" s="3">
-        <f>C5*F5</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B6" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
@@ -1452,16 +1836,16 @@
         <v>50</v>
       </c>
       <c r="G6" s="3">
-        <f>C6*F6</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7" s="3">
         <v>3</v>
@@ -1477,57 +1861,90 @@
         <v>30</v>
       </c>
       <c r="G7" s="3">
-        <f>C7*F7</f>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3">
+        <f>D8*E8</f>
+        <v>30</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" ref="G8" si="2">C8*F8</f>
+        <v>180</v>
+      </c>
+    </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
         <v>12</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E11" s="3">
         <v>2</v>
       </c>
-      <c r="F9" s="3">
-        <f>D9*E9</f>
+      <c r="F11" s="3">
+        <f>D11*E11</f>
         <v>24</v>
       </c>
-      <c r="G9" s="3">
-        <f>C9*F9</f>
+      <c r="G11" s="3">
+        <f>C11*F11</f>
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="3">
         <v>2</v>
       </c>
-      <c r="D10" s="3">
+      <c r="C12" s="3">
+        <v>2</v>
+      </c>
+      <c r="D12" s="3">
         <v>10</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E12" s="3">
         <v>2</v>
       </c>
-      <c r="F10" s="3">
-        <f>D10*E10</f>
+      <c r="F12" s="3">
+        <f>D12*E12</f>
         <v>20</v>
       </c>
-      <c r="G10" s="3">
-        <f>C10*F10</f>
+      <c r="G12" s="3">
+        <f>C12*F12</f>
         <v>40</v>
       </c>
     </row>
@@ -1543,10 +1960,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1558,7 +1975,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -1570,10 +1987,10 @@
         <v>11</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>21</v>
@@ -1587,17 +2004,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" s="7" t="str">
-        <f>CONCATENATE(A2," Mag")</f>
-        <v>9mm Pistol Mag</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>33</v>
       </c>
       <c r="E2" s="10">
         <f>VLOOKUP(D2,Boxes!A:G,3,0)</f>
@@ -1611,23 +2027,22 @@
         <v>16</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="7" t="str">
-        <f t="shared" ref="B3:B6" si="0">CONCATENATE(A3," Mag")</f>
-        <v>10mm Pistol Mag</v>
+        <v>27</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E3" s="10">
         <f>VLOOKUP(D3,Boxes!A:G,3,0)</f>
@@ -1637,155 +2052,198 @@
         <v>12</v>
       </c>
       <c r="G3" s="20">
-        <f t="shared" ref="G3" si="1">ROUND(1.2*E3*F3,0)</f>
+        <f t="shared" ref="G3" si="0">ROUND(1.2*E3*F3,0)</f>
         <v>29</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>Hunting Rifle Mag</v>
+        <v>71</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>27</v>
+        <v>2</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="E4" s="10">
         <f>VLOOKUP(D4,Boxes!A:G,3,0)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F4" s="6">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G4" s="20">
-        <f>ROUND(1.2*E4*F4,0)</f>
-        <v>24</v>
+        <f t="shared" ref="G4:G6" si="1">ROUND(1.2*E4*F4,0)</f>
+        <v>48</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>Pipe Pistol Mag</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="10">
-        <f>VLOOKUP(D5,Boxes!A:G,3,0)</f>
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>12</v>
-      </c>
-      <c r="G5" s="20">
-        <f>ROUND(1.2*E5*F5,0)</f>
-        <v>14</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>39</v>
-      </c>
+      <c r="B5" s="7"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>Assault Rifle Mag</v>
+        <v>75</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="10">
+        <v>10</v>
+      </c>
+      <c r="F6" s="6">
+        <v>30</v>
+      </c>
+      <c r="G6" s="20">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="H6" s="11">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="7"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="10">
+        <f>VLOOKUP(D8,Boxes!A:G,3,0)</f>
+        <v>4</v>
+      </c>
+      <c r="F8" s="6">
+        <v>5</v>
+      </c>
+      <c r="G8" s="20">
+        <f>ROUND(1.2*E8*F8,0)</f>
+        <v>24</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="3">
         <v>6</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="10">
+      <c r="D9" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="10">
         <v>3</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F9" s="3">
         <v>30</v>
       </c>
-      <c r="G6" s="20">
-        <f>ROUND(1.2*E6*F6,0)</f>
+      <c r="G9" s="20">
+        <f>ROUND(1.2*E9*F9,0)</f>
         <v>108</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H9" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>30</v>
+      </c>
+      <c r="G11" s="21">
+        <f>E11*F11</f>
+        <v>60</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="11">
-        <v>2</v>
-      </c>
-      <c r="F8" s="3">
-        <v>30</v>
-      </c>
-      <c r="G8" s="21">
-        <f>E8*F8</f>
-        <v>60</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="E12" s="3">
         <v>3</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F12" s="3">
         <v>25</v>
       </c>
-      <c r="G9" s="21">
-        <f>E9*F9</f>
+      <c r="G12" s="21">
+        <f>E12*F12</f>
         <v>75</v>
       </c>
-      <c r="H9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D11" s="11"/>
-      <c r="G11" s="21"/>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D14" s="11"/>
+      <c r="G14" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/guns.xlsx
+++ b/data/guns.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Repos/savagewasteland/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1588EA36-78BA-6C44-879D-79712E8A257A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E960B471-2C8E-B04C-97EF-9ED7116DF83D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="107">
   <si>
     <t>Qty</t>
   </si>
@@ -351,6 +351,9 @@
   </si>
   <si>
     <t>Bouncing Betty</t>
+  </si>
+  <si>
+    <t>Anti-Material Rifle Mag</t>
   </si>
 </sst>
 </file>
@@ -820,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -957,59 +960,94 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="H4" s="19"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+    <row r="4" spans="1:13" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="6">
-        <v>0</v>
-      </c>
-      <c r="C5" s="6">
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
         <v>100</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8" t="s">
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H4" s="17" t="s">
         <v>31</v>
       </c>
+      <c r="I4" s="6" t="str">
+        <f>"m" &amp; VLOOKUP(A4,Mags!A1:I6,6,0)</f>
+        <v>m13</v>
+      </c>
+      <c r="J4" s="6">
+        <v>2</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="6">
+        <v>6</v>
+      </c>
+      <c r="M4" s="17"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>225</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>28</v>
+      </c>
       <c r="I5" s="6" t="str">
-        <f>"m" &amp; VLOOKUP(A5,Mags!A1:I8,6,0)</f>
-        <v>m13</v>
-      </c>
-      <c r="J5" s="6">
-        <v>2</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="L5" s="6">
+        <f>"m" &amp; VLOOKUP(A5,Mags!A2:I6,6,0)</f>
+        <v>m12</v>
+      </c>
+      <c r="J5" s="3">
+        <v>3</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
         <v>6</v>
       </c>
-      <c r="M5" s="17"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
       </c>
       <c r="C6" s="3">
-        <v>225</v>
+        <v>1800</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>19</v>
@@ -1018,7 +1056,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>30</v>
@@ -1026,50 +1064,50 @@
       <c r="H6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="6" t="str">
-        <f>"m" &amp; VLOOKUP(A6,Mags!A2:I8,6,0)</f>
-        <v>m12</v>
+      <c r="I6" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="J6" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L6" s="3">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B7" s="3">
         <v>2</v>
       </c>
       <c r="C7" s="3">
-        <v>1800</v>
+        <v>5000</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="E7" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>72</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="I7" s="6"/>
       <c r="J7" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>5</v>
@@ -1078,238 +1116,379 @@
         <v>4</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="I8" s="6"/>
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>4000</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="3">
+        <v>3</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" s="3">
+        <v>20</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" s="3">
+        <v>6</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="3">
-        <v>5000</v>
+        <v>3000</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="E9" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="I9" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="J9" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L9" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>4</v>
       </c>
       <c r="B10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" s="3">
-        <v>4000</v>
+        <v>1500</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="E10" s="3">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H10" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>84</v>
+        <v>17</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="6" t="str">
+        <f>"m" &amp; VLOOKUP(A10,Mags!A3:I8,6,0)</f>
+        <v>m5</v>
       </c>
       <c r="J10" s="3">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="L10" s="3">
         <v>6</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="I11" s="6"/>
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="3">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3">
+        <v>800</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="3">
+        <v>7</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="3">
+        <v>5</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="B12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="3">
-        <v>3000</v>
+        <v>320</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E12" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>82</v>
+        <v>35</v>
       </c>
       <c r="J12" s="3">
+        <v>3</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3">
         <v>6</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L12" s="3">
-        <v>5</v>
-      </c>
       <c r="M12" s="18" t="s">
-        <v>86</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="B13" s="3">
         <v>0</v>
       </c>
       <c r="C13" s="3">
-        <v>1500</v>
+        <v>400</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E13" s="3">
-        <v>2</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>79</v>
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="I13" s="6" t="str">
-        <f>"m" &amp; VLOOKUP(A13,Mags!A3:I10,6,0)</f>
-        <v>m5</v>
+        <v>16</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="J13" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L13" s="3">
         <v>6</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="H14" s="19"/>
-      <c r="I14" s="6"/>
+      <c r="A14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3">
+        <v>800</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="3">
+        <v>6</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="3">
+        <v>6</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B15" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C15" s="3">
-        <v>800</v>
+        <v>110</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="3">
+        <v>6</v>
+      </c>
+      <c r="J15" s="3">
         <v>2</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="J15" s="3">
-        <v>7</v>
-      </c>
       <c r="K15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3">
+        <v>80</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3">
         <v>5</v>
       </c>
-      <c r="L15" s="3">
-        <v>5</v>
-      </c>
-      <c r="M15" s="18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="H16" s="19"/>
+      <c r="K16" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" s="3">
+        <v>6</v>
+      </c>
+      <c r="M16" s="18" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="B17" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C17" s="3">
-        <v>320</v>
+        <v>140</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -1318,357 +1497,164 @@
         <v>1</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>35</v>
+        <v>48</v>
+      </c>
+      <c r="H17" t="s">
+        <v>53</v>
+      </c>
+      <c r="I17" s="3">
+        <v>6</v>
       </c>
       <c r="J17" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L17" s="3">
         <v>6</v>
       </c>
       <c r="M17" s="18" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B18" s="3">
         <v>0</v>
       </c>
       <c r="C18" s="3">
-        <v>400</v>
+        <v>4000</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="F18" s="3">
         <v>1</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="J18" s="3">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L18" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M18" s="18" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="B19" s="3">
         <v>0</v>
       </c>
       <c r="C19" s="3">
-        <v>800</v>
+        <v>150</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="F19" s="3">
         <v>1</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="J19" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K19" s="3" t="s">
         <v>1</v>
       </c>
       <c r="L19" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M19" s="18" t="s">
-        <v>24</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3">
+        <v>75</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="18" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="B21" s="3">
         <v>0</v>
       </c>
       <c r="C21" s="3">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="F21" s="3">
         <v>1</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>20</v>
+      <c r="G21" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="I21" s="3">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="J21" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="L21" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="3">
-        <v>0</v>
-      </c>
-      <c r="C23" s="3">
-        <v>80</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>52</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1</v>
-      </c>
-      <c r="J23" s="3">
-        <v>5</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L23" s="3">
-        <v>6</v>
-      </c>
-      <c r="M23" s="18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="3">
-        <v>1</v>
-      </c>
-      <c r="C24" s="3">
-        <v>140</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H24" t="s">
-        <v>53</v>
-      </c>
-      <c r="I24" s="3">
-        <v>6</v>
-      </c>
-      <c r="J24" s="3">
-        <v>7</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="3">
-        <v>6</v>
-      </c>
-      <c r="M24" s="18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="3">
-        <v>0</v>
-      </c>
-      <c r="C26" s="3">
-        <v>4000</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="J26" s="3">
-        <v>14</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="3">
-        <v>4</v>
-      </c>
-      <c r="M26" s="18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="3">
-        <v>0</v>
-      </c>
-      <c r="C27" s="3">
-        <v>150</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F27" s="3">
-        <v>1</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="J27" s="3">
-        <v>1</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" s="3">
-        <v>6</v>
-      </c>
-      <c r="C28" s="3">
-        <v>75</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F28" s="3">
-        <v>1</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H28" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="J28" s="3">
-        <v>1</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="L28" s="3">
-        <v>0</v>
-      </c>
-      <c r="M28" s="18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>105</v>
-      </c>
-      <c r="B29" s="3">
-        <v>3</v>
-      </c>
-      <c r="C29" s="3">
-        <v>200</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="F29" s="3">
-        <v>1</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H29" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="J29" s="3">
-        <v>9</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="M21" s="18" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1684,10 +1670,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1745,7 +1731,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
@@ -1782,7 +1768,7 @@
         <v>2</v>
       </c>
       <c r="F4" s="3">
-        <f>D4*E4</f>
+        <f t="shared" ref="F4:F10" si="2">D4*E4</f>
         <v>40</v>
       </c>
       <c r="G4" s="3">
@@ -1795,7 +1781,7 @@
         <v>41</v>
       </c>
       <c r="B5" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -1807,7 +1793,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="3">
-        <f>D5*E5</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="G5" s="3">
@@ -1820,7 +1806,7 @@
         <v>40</v>
       </c>
       <c r="B6" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
@@ -1832,7 +1818,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="3">
-        <f>D6*E6</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="G6" s="3">
@@ -1845,7 +1831,7 @@
         <v>70</v>
       </c>
       <c r="B7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="3">
         <v>3</v>
@@ -1857,7 +1843,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="3">
-        <f>D7*E7</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="G7" s="3">
@@ -1870,81 +1856,73 @@
         <v>77</v>
       </c>
       <c r="B8" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8" s="3">
         <v>6</v>
       </c>
       <c r="D8" s="3">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" ref="G8" si="3">C8*F8</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>12</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="G9" s="3">
+        <f>C9*F9</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3">
         <v>10</v>
       </c>
-      <c r="E8" s="3">
-        <v>3</v>
-      </c>
-      <c r="F8" s="3">
-        <f>D8*E8</f>
-        <v>30</v>
-      </c>
-      <c r="G8" s="3">
-        <f t="shared" ref="G8" si="2">C8*F8</f>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1</v>
-      </c>
-      <c r="D11" s="3">
-        <v>12</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="E10" s="3">
         <v>2</v>
       </c>
-      <c r="F11" s="3">
-        <f>D11*E11</f>
-        <v>24</v>
-      </c>
-      <c r="G11" s="3">
-        <f>C11*F11</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="3">
-        <v>2</v>
-      </c>
-      <c r="C12" s="3">
-        <v>2</v>
-      </c>
-      <c r="D12" s="3">
-        <v>10</v>
-      </c>
-      <c r="E12" s="3">
-        <v>2</v>
-      </c>
-      <c r="F12" s="3">
-        <f>D12*E12</f>
+      <c r="F10" s="3">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="G12" s="3">
-        <f>C12*F12</f>
+      <c r="G10" s="3">
+        <f>C10*F10</f>
         <v>40</v>
       </c>
     </row>
@@ -1960,10 +1938,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2067,7 +2045,7 @@
         <v>93</v>
       </c>
       <c r="C4" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>28</v>
@@ -2080,7 +2058,7 @@
         <v>20</v>
       </c>
       <c r="G4" s="20">
-        <f t="shared" ref="G4:G6" si="1">ROUND(1.2*E4*F4,0)</f>
+        <f t="shared" ref="G4:G5" si="1">ROUND(1.2*E4*F4,0)</f>
         <v>48</v>
       </c>
       <c r="H4" s="11" t="s">
@@ -2088,162 +2066,168 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="7"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="11"/>
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="10">
+        <v>10</v>
+      </c>
+      <c r="F5" s="6">
+        <v>30</v>
+      </c>
+      <c r="G5" s="20">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="H5" s="11">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C6" s="3">
-        <v>3</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>95</v>
+        <v>0</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="E6" s="10">
-        <v>10</v>
+        <f>VLOOKUP(D6,Boxes!A:G,3,0)</f>
+        <v>4</v>
       </c>
       <c r="F6" s="6">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G6" s="20">
-        <f t="shared" si="1"/>
-        <v>360</v>
-      </c>
-      <c r="H6" s="11">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>97</v>
+        <f>ROUND(1.2*E6*F6,0)</f>
+        <v>24</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="7"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="11"/>
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="10">
+        <v>6</v>
+      </c>
+      <c r="F7" s="6">
+        <v>8</v>
+      </c>
+      <c r="G7" s="20">
+        <f>ROUND(1.2*E7*F7,0)</f>
+        <v>58</v>
+      </c>
+      <c r="H7" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>26</v>
+        <v>1</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="E8" s="10">
-        <f>VLOOKUP(D8,Boxes!A:G,3,0)</f>
-        <v>4</v>
-      </c>
-      <c r="F8" s="6">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="F8" s="3">
+        <v>30</v>
       </c>
       <c r="G8" s="20">
         <f>ROUND(1.2*E8*F8,0)</f>
-        <v>24</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>37</v>
+        <v>108</v>
+      </c>
+      <c r="H8" s="11">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>91</v>
+      <c r="B9" t="s">
+        <v>35</v>
       </c>
       <c r="C9" s="3">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="10">
-        <v>3</v>
+        <v>25</v>
+      </c>
+      <c r="E9" s="11">
+        <v>2</v>
       </c>
       <c r="F9" s="3">
         <v>30</v>
       </c>
-      <c r="G9" s="20">
-        <f>ROUND(1.2*E9*F9,0)</f>
-        <v>108</v>
-      </c>
-      <c r="H9" s="11">
-        <v>1</v>
+      <c r="G9" s="21">
+        <f>E9*F9</f>
+        <v>60</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3">
         <v>25</v>
       </c>
-      <c r="E11" s="11">
-        <v>2</v>
-      </c>
-      <c r="F11" s="3">
-        <v>30</v>
-      </c>
-      <c r="G11" s="21">
-        <f>E11*F11</f>
-        <v>60</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>37</v>
+      <c r="G10" s="21">
+        <f>E10*F10</f>
+        <v>75</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="3">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3">
-        <v>25</v>
-      </c>
-      <c r="G12" s="21">
-        <f>E12*F12</f>
-        <v>75</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D14" s="11"/>
-      <c r="G14" s="21"/>
+      <c r="D12" s="11"/>
+      <c r="G12" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
